--- a/interface/pkg_hysw/pkg_hysw.xlsx
+++ b/interface/pkg_hysw/pkg_hysw.xlsx
@@ -102,12 +102,18 @@
     <t>A</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>操作员</t>
   </si>
   <si>
     <t>swczy</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>流水号</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t>khbh</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>[响应报文]</t>
   </si>
   <si>
@@ -144,6 +153,9 @@
     <t>yhdqhm</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>用户当前地址</t>
   </si>
   <si>
@@ -156,12 +168,18 @@
     <t>yhjffs</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>预付款余额</t>
   </si>
   <si>
     <t>yfkye</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>应收总金额</t>
   </si>
   <si>
@@ -180,6 +198,9 @@
     <t>pkg_hysw_10_loop</t>
   </si>
   <si>
+    <t>[/hysw/rsp/sfmxbs]</t>
+  </si>
+  <si>
     <t>[响应报文循环域]</t>
   </si>
   <si>
@@ -189,12 +210,18 @@
     <t>sfjlh</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>水费年月</t>
   </si>
   <si>
     <t>sfny</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>用水量</t>
   </si>
   <si>
@@ -207,6 +234,9 @@
     <t>scye</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>账单金额</t>
   </si>
   <si>
@@ -246,9 +276,15 @@
     <t>jymxbs</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>pkg_hysw_15_loop</t>
   </si>
   <si>
+    <t>[/hysw/rsp/jymxbs]</t>
+  </si>
+  <si>
     <t>交易日期</t>
   </si>
   <si>
@@ -279,9 +315,6 @@
     <t>dybz</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t>pkg_hysw_16_loop</t>
   </si>
   <si>
+    <t>[/hysw/rsp/pricecount]</t>
+  </si>
+  <si>
     <t>充值前余额</t>
   </si>
   <si>
@@ -385,6 +421,9 @@
   </si>
   <si>
     <t>ysxz</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>用水比率</t>
@@ -1511,7 +1550,9 @@
       <c r="D11" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="13"/>
+      <c r="E11" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F11" t="s" s="13"/>
       <c r="G11" t="s" s="13"/>
     </row>
@@ -1520,15 +1561,17 @@
         <v>2</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E12" t="s" s="13"/>
+      <c r="E12" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F12" t="s" s="13"/>
       <c r="G12" t="s" s="13"/>
     </row>
@@ -1537,15 +1580,17 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D13" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s" s="13"/>
       <c r="F13" t="s" s="13"/>
       <c r="G13" t="s" s="13"/>
     </row>
@@ -1554,15 +1599,17 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E14" t="s" s="13"/>
+      <c r="E14" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F14" t="s" s="13"/>
       <c r="G14" t="s" s="13"/>
     </row>
@@ -1571,7 +1618,7 @@
     <row r="17" outlineLevel="0"/>
     <row r="18" outlineLevel="0">
       <c r="A18" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s" s="10"/>
     </row>
@@ -1600,7 +1647,7 @@
     </row>
     <row r="20" outlineLevel="0">
       <c r="A20" t="s" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="7"/>
       <c r="C20" t="s" s="7"/>
@@ -1614,15 +1661,17 @@
         <v>1</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E21" t="s" s="13"/>
+      <c r="E21" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F21" t="s" s="13"/>
       <c r="G21" t="s" s="13"/>
     </row>
@@ -1634,12 +1683,14 @@
         <v>23</v>
       </c>
       <c r="C22" t="s" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E22" t="s" s="13"/>
+      <c r="E22" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F22" t="s" s="13"/>
       <c r="G22" t="s" s="13"/>
     </row>
@@ -1648,15 +1699,17 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E23" t="s" s="13"/>
+      <c r="E23" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F23" t="s" s="13"/>
       <c r="G23" t="s" s="13"/>
     </row>
@@ -1665,15 +1718,17 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D24" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s" s="13"/>
       <c r="F24" t="s" s="13"/>
       <c r="G24" t="s" s="13"/>
     </row>
@@ -1682,15 +1737,17 @@
         <v>5</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E25" t="s" s="13"/>
+      <c r="E25" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F25" t="s" s="13"/>
       <c r="G25" t="s" s="13"/>
     </row>
@@ -1699,15 +1756,17 @@
         <v>6</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E26" t="s" s="13"/>
+      <c r="E26" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F26" t="s" s="13"/>
       <c r="G26" t="s" s="13"/>
     </row>
@@ -1716,15 +1775,17 @@
         <v>7</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E27" t="s" s="13"/>
+      <c r="E27" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F27" t="s" s="13"/>
       <c r="G27" t="s" s="13"/>
     </row>
@@ -1733,15 +1794,17 @@
         <v>8</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E28" t="s" s="13"/>
+      <c r="E28" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F28" t="s" s="13"/>
       <c r="G28" t="s" s="13"/>
     </row>
@@ -1750,15 +1813,17 @@
         <v>9</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E29" t="s" s="13"/>
+      <c r="E29" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F29" t="s" s="13"/>
       <c r="G29" t="s" s="13"/>
     </row>
@@ -1767,15 +1832,17 @@
         <v>10</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s" s="13">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E30" t="s" s="13"/>
+      <c r="E30" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F30" t="s" s="13"/>
       <c r="G30" t="s" s="13"/>
     </row>
@@ -1784,15 +1851,17 @@
         <v>11</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s" s="13">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E31" t="s" s="13"/>
+      <c r="E31" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F31" t="s" s="13"/>
       <c r="G31" t="s" s="13"/>
     </row>
@@ -1801,15 +1870,17 @@
         <v>12</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s" s="13">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E32" t="s" s="13"/>
+      <c r="E32" t="s" s="13">
+        <v>58</v>
+      </c>
       <c r="F32" t="s" s="13"/>
       <c r="G32" t="s" s="13"/>
     </row>
@@ -1818,7 +1889,7 @@
     <row r="35" outlineLevel="0"/>
     <row r="36" outlineLevel="0">
       <c r="A36" t="s" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s" s="10"/>
     </row>
@@ -1850,15 +1921,17 @@
         <v>1</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s" s="13">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E38" t="s" s="13"/>
+      <c r="E38" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F38" t="s" s="13"/>
       <c r="G38" t="s" s="13"/>
     </row>
@@ -1867,15 +1940,17 @@
         <v>2</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s" s="13">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E39" t="s" s="13"/>
+      <c r="E39" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F39" t="s" s="13"/>
       <c r="G39" t="s" s="13"/>
     </row>
@@ -1884,15 +1959,17 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="13">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s" s="13">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E40" t="s" s="13"/>
+      <c r="E40" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F40" t="s" s="13"/>
       <c r="G40" t="s" s="13"/>
     </row>
@@ -1901,15 +1978,17 @@
         <v>4</v>
       </c>
       <c r="B41" t="s" s="13">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s" s="13">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E41" t="s" s="13"/>
+      <c r="E41" t="s" s="13">
+        <v>70</v>
+      </c>
       <c r="F41" t="s" s="13"/>
       <c r="G41" t="s" s="13"/>
     </row>
@@ -1918,15 +1997,17 @@
         <v>5</v>
       </c>
       <c r="B42" t="s" s="13">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s" s="13">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E42" t="s" s="13"/>
+      <c r="E42" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F42" t="s" s="13"/>
       <c r="G42" t="s" s="13"/>
     </row>
@@ -1935,15 +2016,17 @@
         <v>6</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s" s="13">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E43" t="s" s="13"/>
+      <c r="E43" t="s" s="13">
+        <v>70</v>
+      </c>
       <c r="F43" t="s" s="13"/>
       <c r="G43" t="s" s="13"/>
     </row>
@@ -1952,15 +2035,17 @@
         <v>7</v>
       </c>
       <c r="B44" t="s" s="13">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s" s="13">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E44" t="s" s="13"/>
+      <c r="E44" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F44" t="s" s="13"/>
       <c r="G44" t="s" s="13"/>
     </row>
@@ -2022,7 +2107,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s" s="7"/>
       <c r="E3" t="s" s="7"/>
@@ -2110,7 +2195,9 @@
       <c r="D11" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="13"/>
+      <c r="E11" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F11" t="s" s="13"/>
       <c r="G11" t="s" s="13"/>
     </row>
@@ -2119,15 +2206,17 @@
         <v>2</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E12" t="s" s="13"/>
+      <c r="E12" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F12" t="s" s="13"/>
       <c r="G12" t="s" s="13"/>
     </row>
@@ -2136,15 +2225,17 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D13" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s" s="13"/>
       <c r="F13" t="s" s="13"/>
       <c r="G13" t="s" s="13"/>
     </row>
@@ -2153,15 +2244,17 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E14" t="s" s="13"/>
+      <c r="E14" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F14" t="s" s="13"/>
       <c r="G14" t="s" s="13"/>
     </row>
@@ -2170,15 +2263,17 @@
         <v>5</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s" s="13">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E15" t="s" s="13"/>
+      <c r="E15" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F15" t="s" s="13"/>
       <c r="G15" t="s" s="13"/>
     </row>
@@ -2187,15 +2282,17 @@
         <v>6</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E16" t="s" s="13"/>
+      <c r="E16" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F16" t="s" s="13"/>
       <c r="G16" t="s" s="13"/>
     </row>
@@ -2204,7 +2301,7 @@
     <row r="19" outlineLevel="0"/>
     <row r="20" outlineLevel="0">
       <c r="A20" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="10"/>
     </row>
@@ -2233,7 +2330,7 @@
     </row>
     <row r="22" outlineLevel="0">
       <c r="A22" t="s" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="7"/>
       <c r="C22" t="s" s="7"/>
@@ -2247,15 +2344,17 @@
         <v>1</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E23" t="s" s="13"/>
+      <c r="E23" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F23" t="s" s="13"/>
       <c r="G23" t="s" s="13"/>
     </row>
@@ -2267,12 +2366,14 @@
         <v>23</v>
       </c>
       <c r="C24" t="s" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E24" t="s" s="13"/>
+      <c r="E24" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F24" t="s" s="13"/>
       <c r="G24" t="s" s="13"/>
     </row>
@@ -2281,15 +2382,17 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E25" t="s" s="13"/>
+      <c r="E25" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F25" t="s" s="13"/>
       <c r="G25" t="s" s="13"/>
     </row>
@@ -2298,15 +2401,17 @@
         <v>4</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D26" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s" s="13"/>
       <c r="F26" t="s" s="13"/>
       <c r="G26" t="s" s="13"/>
     </row>
@@ -2315,15 +2420,17 @@
         <v>5</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E27" t="s" s="13"/>
+      <c r="E27" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F27" t="s" s="13"/>
       <c r="G27" t="s" s="13"/>
     </row>
@@ -2332,15 +2439,17 @@
         <v>6</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E28" t="s" s="13"/>
+      <c r="E28" t="s" s="13">
+        <v>84</v>
+      </c>
       <c r="F28" t="s" s="13"/>
       <c r="G28" t="s" s="13"/>
     </row>
@@ -2349,15 +2458,17 @@
         <v>7</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E29" t="s" s="13"/>
+      <c r="E29" t="s" s="13">
+        <v>86</v>
+      </c>
       <c r="F29" t="s" s="13"/>
       <c r="G29" t="s" s="13"/>
     </row>
@@ -2366,7 +2477,7 @@
     <row r="32" outlineLevel="0"/>
     <row r="33" outlineLevel="0">
       <c r="A33" t="s" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s" s="10"/>
     </row>
@@ -2398,15 +2509,17 @@
         <v>1</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s" s="13">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E35" t="s" s="13"/>
+      <c r="E35" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F35" t="s" s="13"/>
       <c r="G35" t="s" s="13"/>
     </row>
@@ -2415,15 +2528,17 @@
         <v>2</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s" s="13">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E36" t="s" s="13"/>
+      <c r="E36" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F36" t="s" s="13"/>
       <c r="G36" t="s" s="13"/>
     </row>
@@ -2432,15 +2547,17 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="13">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s" s="13">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E37" t="s" s="13"/>
+      <c r="E37" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F37" t="s" s="13"/>
       <c r="G37" t="s" s="13"/>
     </row>
@@ -2449,15 +2566,17 @@
         <v>4</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s" s="13">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E38" t="s" s="13"/>
+      <c r="E38" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F38" t="s" s="13"/>
       <c r="G38" t="s" s="13"/>
     </row>
@@ -2466,15 +2585,17 @@
         <v>5</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s" s="13">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E39" t="s" s="13"/>
+      <c r="E39" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F39" t="s" s="13"/>
       <c r="G39" t="s" s="13"/>
     </row>
@@ -2483,15 +2604,17 @@
         <v>6</v>
       </c>
       <c r="B40" t="s" s="13">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s" s="13">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E40" t="s" s="13"/>
+      <c r="E40" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F40" t="s" s="13"/>
       <c r="G40" t="s" s="13"/>
     </row>
@@ -2553,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s" s="7"/>
       <c r="E3" t="s" s="7"/>
@@ -2641,7 +2764,9 @@
       <c r="D11" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="13"/>
+      <c r="E11" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F11" t="s" s="13"/>
       <c r="G11" t="s" s="13"/>
     </row>
@@ -2650,15 +2775,17 @@
         <v>2</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E12" t="s" s="13"/>
+      <c r="E12" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F12" t="s" s="13"/>
       <c r="G12" t="s" s="13"/>
     </row>
@@ -2667,15 +2794,17 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D13" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s" s="13"/>
       <c r="F13" t="s" s="13"/>
       <c r="G13" t="s" s="13"/>
     </row>
@@ -2684,15 +2813,17 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E14" t="s" s="13"/>
+      <c r="E14" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F14" t="s" s="13"/>
       <c r="G14" t="s" s="13"/>
     </row>
@@ -2702,12 +2833,14 @@
       </c>
       <c r="B15" t="s" s="13"/>
       <c r="C15" t="s" s="13">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E15" t="s" s="13"/>
+      <c r="E15" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F15" t="s" s="13"/>
       <c r="G15" t="s" s="13"/>
     </row>
@@ -2716,15 +2849,17 @@
         <v>6</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E16" t="s" s="13"/>
+      <c r="E16" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F16" t="s" s="13"/>
       <c r="G16" t="s" s="13"/>
     </row>
@@ -2733,7 +2868,7 @@
     <row r="19" outlineLevel="0"/>
     <row r="20" outlineLevel="0">
       <c r="A20" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="10"/>
     </row>
@@ -2762,7 +2897,7 @@
     </row>
     <row r="22" outlineLevel="0">
       <c r="A22" t="s" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="7"/>
       <c r="C22" t="s" s="7"/>
@@ -2776,15 +2911,17 @@
         <v>1</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E23" t="s" s="13"/>
+      <c r="E23" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F23" t="s" s="13"/>
       <c r="G23" t="s" s="13"/>
     </row>
@@ -2796,12 +2933,14 @@
         <v>23</v>
       </c>
       <c r="C24" t="s" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E24" t="s" s="13"/>
+      <c r="E24" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F24" t="s" s="13"/>
       <c r="G24" t="s" s="13"/>
     </row>
@@ -2810,15 +2949,17 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E25" t="s" s="13"/>
+      <c r="E25" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F25" t="s" s="13"/>
       <c r="G25" t="s" s="13"/>
     </row>
@@ -2827,15 +2968,17 @@
         <v>4</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D26" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s" s="13"/>
       <c r="F26" t="s" s="13"/>
       <c r="G26" t="s" s="13"/>
     </row>
@@ -2844,15 +2987,17 @@
         <v>5</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E27" t="s" s="13"/>
+      <c r="E27" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F27" t="s" s="13"/>
       <c r="G27" t="s" s="13"/>
     </row>
@@ -2861,15 +3006,17 @@
         <v>6</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E28" t="s" s="13"/>
+      <c r="E28" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F28" t="s" s="13"/>
       <c r="G28" t="s" s="13"/>
     </row>
@@ -2878,15 +3025,17 @@
         <v>7</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E29" t="s" s="13"/>
+      <c r="E29" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F29" t="s" s="13"/>
       <c r="G29" t="s" s="13"/>
     </row>
@@ -2895,15 +3044,17 @@
         <v>8</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s" s="13">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E30" t="s" s="13"/>
+      <c r="E30" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F30" t="s" s="13"/>
       <c r="G30" t="s" s="13"/>
     </row>
@@ -2912,15 +3063,17 @@
         <v>9</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E31" t="s" s="13"/>
+      <c r="E31" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F31" t="s" s="13"/>
       <c r="G31" t="s" s="13"/>
     </row>
@@ -2929,15 +3082,17 @@
         <v>10</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s" s="13">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E32" t="s" s="13"/>
+      <c r="E32" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F32" t="s" s="13"/>
       <c r="G32" t="s" s="13"/>
     </row>
@@ -2946,15 +3101,17 @@
         <v>11</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s" s="13">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E33" t="s" s="13"/>
+      <c r="E33" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F33" t="s" s="13"/>
       <c r="G33" t="s" s="13"/>
     </row>
@@ -2963,15 +3120,17 @@
         <v>12</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s" s="13">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E34" t="s" s="13"/>
+      <c r="E34" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F34" t="s" s="13"/>
       <c r="G34" t="s" s="13"/>
     </row>
@@ -2980,15 +3139,17 @@
         <v>13</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s" s="13">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E35" t="s" s="13"/>
+      <c r="E35" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F35" t="s" s="13"/>
       <c r="G35" t="s" s="13"/>
     </row>
@@ -2997,15 +3158,17 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s" s="13">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E36" t="s" s="13"/>
+      <c r="E36" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F36" t="s" s="13"/>
       <c r="G36" t="s" s="13"/>
     </row>
@@ -3014,15 +3177,17 @@
         <v>15</v>
       </c>
       <c r="B37" t="s" s="13">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s" s="13">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E37" t="s" s="13"/>
+      <c r="E37" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F37" t="s" s="13"/>
       <c r="G37" t="s" s="13"/>
     </row>
@@ -3031,15 +3196,17 @@
         <v>16</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s" s="13">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E38" t="s" s="13"/>
+      <c r="E38" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F38" t="s" s="13"/>
       <c r="G38" t="s" s="13"/>
     </row>
@@ -3048,15 +3215,17 @@
         <v>17</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s" s="13">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E39" t="s" s="13"/>
+      <c r="E39" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F39" t="s" s="13"/>
       <c r="G39" t="s" s="13"/>
     </row>
@@ -3065,15 +3234,17 @@
         <v>18</v>
       </c>
       <c r="B40" t="s" s="13">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s" s="13">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E40" t="s" s="13"/>
+      <c r="E40" t="s" s="13">
+        <v>70</v>
+      </c>
       <c r="F40" t="s" s="13"/>
       <c r="G40" t="s" s="13"/>
     </row>
@@ -3082,15 +3253,17 @@
         <v>19</v>
       </c>
       <c r="B41" t="s" s="13">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s" s="13">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E41" t="s" s="13"/>
+      <c r="E41" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F41" t="s" s="13"/>
       <c r="G41" t="s" s="13"/>
     </row>
@@ -3099,15 +3272,17 @@
         <v>20</v>
       </c>
       <c r="B42" t="s" s="13">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s" s="13">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E42" t="s" s="13"/>
+      <c r="E42" t="s" s="13">
+        <v>70</v>
+      </c>
       <c r="F42" t="s" s="13"/>
       <c r="G42" t="s" s="13"/>
     </row>
@@ -3116,15 +3291,17 @@
         <v>21</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s" s="13">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E43" t="s" s="13"/>
+      <c r="E43" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F43" t="s" s="13"/>
       <c r="G43" t="s" s="13"/>
     </row>
@@ -3133,15 +3310,17 @@
         <v>22</v>
       </c>
       <c r="B44" t="s" s="13">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s" s="13">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E44" t="s" s="13"/>
+      <c r="E44" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F44" t="s" s="13"/>
       <c r="G44" t="s" s="13"/>
     </row>
@@ -3150,15 +3329,17 @@
         <v>23</v>
       </c>
       <c r="B45" t="s" s="13">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s" s="13">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E45" t="s" s="13"/>
+      <c r="E45" t="s" s="13">
+        <v>124</v>
+      </c>
       <c r="F45" t="s" s="13"/>
       <c r="G45" t="s" s="13"/>
     </row>
@@ -3167,15 +3348,17 @@
         <v>24</v>
       </c>
       <c r="B46" t="s" s="13">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s" s="13">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E46" t="s" s="13"/>
+      <c r="E46" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F46" t="s" s="13"/>
       <c r="G46" t="s" s="13"/>
     </row>
@@ -3184,15 +3367,17 @@
         <v>25</v>
       </c>
       <c r="B47" t="s" s="13">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s" s="13">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E47" t="s" s="13"/>
+      <c r="E47" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F47" t="s" s="13"/>
       <c r="G47" t="s" s="13"/>
     </row>
@@ -3201,15 +3386,17 @@
         <v>26</v>
       </c>
       <c r="B48" t="s" s="13">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s" s="13">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E48" t="s" s="13"/>
+      <c r="E48" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F48" t="s" s="13"/>
       <c r="G48" t="s" s="13"/>
     </row>
@@ -3218,7 +3405,7 @@
     <row r="51" outlineLevel="0"/>
     <row r="52" outlineLevel="0">
       <c r="A52" t="s" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s" s="10"/>
     </row>
@@ -3250,15 +3437,17 @@
         <v>1</v>
       </c>
       <c r="B54" t="s" s="13">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s" s="13">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E54" t="s" s="13"/>
+      <c r="E54" t="s" s="13">
+        <v>133</v>
+      </c>
       <c r="F54" t="s" s="13"/>
       <c r="G54" t="s" s="13"/>
     </row>
@@ -3267,15 +3456,17 @@
         <v>2</v>
       </c>
       <c r="B55" t="s" s="13">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s" s="13">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E55" t="s" s="13"/>
+      <c r="E55" t="s" s="13">
+        <v>84</v>
+      </c>
       <c r="F55" t="s" s="13"/>
       <c r="G55" t="s" s="13"/>
     </row>
@@ -3284,15 +3475,17 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="13">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s" s="13">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E56" t="s" s="13"/>
+      <c r="E56" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F56" t="s" s="13"/>
       <c r="G56" t="s" s="13"/>
     </row>
@@ -3301,15 +3494,17 @@
         <v>4</v>
       </c>
       <c r="B57" t="s" s="13">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s" s="13">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E57" t="s" s="13"/>
+      <c r="E57" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F57" t="s" s="13"/>
       <c r="G57" t="s" s="13"/>
     </row>
@@ -3318,15 +3513,17 @@
         <v>5</v>
       </c>
       <c r="B58" t="s" s="13">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s" s="13">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E58" t="s" s="13"/>
+      <c r="E58" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F58" t="s" s="13"/>
       <c r="G58" t="s" s="13"/>
     </row>
@@ -3335,15 +3532,17 @@
         <v>6</v>
       </c>
       <c r="B59" t="s" s="13">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s" s="13">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E59" t="s" s="13"/>
+      <c r="E59" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F59" t="s" s="13"/>
       <c r="G59" t="s" s="13"/>
     </row>
@@ -3352,15 +3551,17 @@
         <v>7</v>
       </c>
       <c r="B60" t="s" s="13">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s" s="13">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E60" t="s" s="13"/>
+      <c r="E60" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F60" t="s" s="13"/>
       <c r="G60" t="s" s="13"/>
     </row>
@@ -3369,15 +3570,17 @@
         <v>8</v>
       </c>
       <c r="B61" t="s" s="13">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s" s="13">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E61" t="s" s="13"/>
+      <c r="E61" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F61" t="s" s="13"/>
       <c r="G61" t="s" s="13"/>
     </row>
@@ -3386,15 +3589,17 @@
         <v>9</v>
       </c>
       <c r="B62" t="s" s="13">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s" s="13">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E62" t="s" s="13"/>
+      <c r="E62" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F62" t="s" s="13"/>
       <c r="G62" t="s" s="13"/>
     </row>
@@ -3403,15 +3608,17 @@
         <v>10</v>
       </c>
       <c r="B63" t="s" s="13">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s" s="13">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E63" t="s" s="13"/>
+      <c r="E63" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F63" t="s" s="13"/>
       <c r="G63" t="s" s="13"/>
     </row>
@@ -3420,15 +3627,17 @@
         <v>11</v>
       </c>
       <c r="B64" t="s" s="13">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s" s="13">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E64" t="s" s="13"/>
+      <c r="E64" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F64" t="s" s="13"/>
       <c r="G64" t="s" s="13"/>
     </row>
@@ -3437,15 +3646,17 @@
         <v>12</v>
       </c>
       <c r="B65" t="s" s="13">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s" s="13">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D65" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E65" t="s" s="13"/>
+      <c r="E65" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F65" t="s" s="13"/>
       <c r="G65" t="s" s="13"/>
     </row>
@@ -3454,15 +3665,17 @@
         <v>13</v>
       </c>
       <c r="B66" t="s" s="13">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s" s="13">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E66" t="s" s="13"/>
+      <c r="E66" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F66" t="s" s="13"/>
       <c r="G66" t="s" s="13"/>
     </row>
@@ -3471,15 +3684,17 @@
         <v>14</v>
       </c>
       <c r="B67" t="s" s="13">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s" s="13">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E67" t="s" s="13"/>
+      <c r="E67" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F67" t="s" s="13"/>
       <c r="G67" t="s" s="13"/>
     </row>
@@ -3488,15 +3703,17 @@
         <v>15</v>
       </c>
       <c r="B68" t="s" s="13">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s" s="13">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E68" t="s" s="13"/>
+      <c r="E68" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F68" t="s" s="13"/>
       <c r="G68" t="s" s="13"/>
     </row>
@@ -3505,15 +3722,17 @@
         <v>16</v>
       </c>
       <c r="B69" t="s" s="13">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s" s="13">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E69" t="s" s="13"/>
+      <c r="E69" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F69" t="s" s="13"/>
       <c r="G69" t="s" s="13"/>
     </row>
@@ -3522,15 +3741,17 @@
         <v>17</v>
       </c>
       <c r="B70" t="s" s="13">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s" s="13">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E70" t="s" s="13"/>
+      <c r="E70" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F70" t="s" s="13"/>
       <c r="G70" t="s" s="13"/>
     </row>
@@ -3539,15 +3760,17 @@
         <v>18</v>
       </c>
       <c r="B71" t="s" s="13">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s" s="13">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E71" t="s" s="13"/>
+      <c r="E71" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F71" t="s" s="13"/>
       <c r="G71" t="s" s="13"/>
     </row>
@@ -3556,15 +3779,17 @@
         <v>19</v>
       </c>
       <c r="B72" t="s" s="13">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s" s="13">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E72" t="s" s="13"/>
+      <c r="E72" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F72" t="s" s="13"/>
       <c r="G72" t="s" s="13"/>
     </row>
@@ -3573,15 +3798,17 @@
         <v>20</v>
       </c>
       <c r="B73" t="s" s="13">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s" s="13">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E73" t="s" s="13"/>
+      <c r="E73" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F73" t="s" s="13"/>
       <c r="G73" t="s" s="13"/>
     </row>
@@ -3590,15 +3817,17 @@
         <v>21</v>
       </c>
       <c r="B74" t="s" s="13">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C74" t="s" s="13">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E74" t="s" s="13"/>
+      <c r="E74" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F74" t="s" s="13"/>
       <c r="G74" t="s" s="13"/>
     </row>
@@ -3607,15 +3836,17 @@
         <v>22</v>
       </c>
       <c r="B75" t="s" s="13">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s" s="13">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E75" t="s" s="13"/>
+      <c r="E75" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F75" t="s" s="13"/>
       <c r="G75" t="s" s="13"/>
     </row>
@@ -3624,15 +3855,17 @@
         <v>23</v>
       </c>
       <c r="B76" t="s" s="13">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s" s="13">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D76" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E76" t="s" s="13"/>
+      <c r="E76" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F76" t="s" s="13"/>
       <c r="G76" t="s" s="13"/>
     </row>
@@ -3641,15 +3874,17 @@
         <v>24</v>
       </c>
       <c r="B77" t="s" s="13">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s" s="13">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E77" t="s" s="13"/>
+      <c r="E77" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F77" t="s" s="13"/>
       <c r="G77" t="s" s="13"/>
     </row>
@@ -3658,15 +3893,17 @@
         <v>25</v>
       </c>
       <c r="B78" t="s" s="13">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s" s="13">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E78" t="s" s="13"/>
+      <c r="E78" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F78" t="s" s="13"/>
       <c r="G78" t="s" s="13"/>
     </row>
@@ -3675,15 +3912,17 @@
         <v>26</v>
       </c>
       <c r="B79" t="s" s="13">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s" s="13">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D79" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E79" t="s" s="13"/>
+      <c r="E79" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F79" t="s" s="13"/>
       <c r="G79" t="s" s="13"/>
     </row>
@@ -3692,15 +3931,17 @@
         <v>27</v>
       </c>
       <c r="B80" t="s" s="13">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C80" t="s" s="13">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D80" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E80" t="s" s="13"/>
+      <c r="E80" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F80" t="s" s="13"/>
       <c r="G80" t="s" s="13"/>
     </row>
@@ -3709,15 +3950,17 @@
         <v>28</v>
       </c>
       <c r="B81" t="s" s="13">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s" s="13">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E81" t="s" s="13"/>
+      <c r="E81" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F81" t="s" s="13"/>
       <c r="G81" t="s" s="13"/>
     </row>
@@ -3726,15 +3969,17 @@
         <v>29</v>
       </c>
       <c r="B82" t="s" s="13">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s" s="13">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E82" t="s" s="13"/>
+      <c r="E82" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F82" t="s" s="13"/>
       <c r="G82" t="s" s="13"/>
     </row>
@@ -3743,15 +3988,17 @@
         <v>30</v>
       </c>
       <c r="B83" t="s" s="13">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C83" t="s" s="13">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E83" t="s" s="13"/>
+      <c r="E83" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F83" t="s" s="13"/>
       <c r="G83" t="s" s="13"/>
     </row>
@@ -3760,15 +4007,17 @@
         <v>31</v>
       </c>
       <c r="B84" t="s" s="13">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C84" t="s" s="13">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E84" t="s" s="13"/>
+      <c r="E84" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F84" t="s" s="13"/>
       <c r="G84" t="s" s="13"/>
     </row>
@@ -3777,15 +4026,17 @@
         <v>32</v>
       </c>
       <c r="B85" t="s" s="13">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C85" t="s" s="13">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E85" t="s" s="13"/>
+      <c r="E85" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F85" t="s" s="13"/>
       <c r="G85" t="s" s="13"/>
     </row>
@@ -3794,15 +4045,17 @@
         <v>33</v>
       </c>
       <c r="B86" t="s" s="13">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s" s="13">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D86" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E86" t="s" s="13"/>
+      <c r="E86" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F86" t="s" s="13"/>
       <c r="G86" t="s" s="13"/>
     </row>
@@ -3811,15 +4064,17 @@
         <v>34</v>
       </c>
       <c r="B87" t="s" s="13">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s" s="13">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D87" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E87" t="s" s="13"/>
+      <c r="E87" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F87" t="s" s="13"/>
       <c r="G87" t="s" s="13"/>
     </row>
@@ -3828,15 +4083,17 @@
         <v>35</v>
       </c>
       <c r="B88" t="s" s="13">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C88" t="s" s="13">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D88" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E88" t="s" s="13"/>
+      <c r="E88" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F88" t="s" s="13"/>
       <c r="G88" t="s" s="13"/>
     </row>
@@ -3845,15 +4102,17 @@
         <v>36</v>
       </c>
       <c r="B89" t="s" s="13">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s" s="13">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D89" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E89" t="s" s="13"/>
+      <c r="E89" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F89" t="s" s="13"/>
       <c r="G89" t="s" s="13"/>
     </row>
@@ -3862,15 +4121,17 @@
         <v>37</v>
       </c>
       <c r="B90" t="s" s="13">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C90" t="s" s="13">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D90" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E90" t="s" s="13"/>
+      <c r="E90" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F90" t="s" s="13"/>
       <c r="G90" t="s" s="13"/>
     </row>
@@ -3879,15 +4140,17 @@
         <v>38</v>
       </c>
       <c r="B91" t="s" s="13">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s" s="13">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D91" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E91" t="s" s="13"/>
+      <c r="E91" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F91" t="s" s="13"/>
       <c r="G91" t="s" s="13"/>
     </row>
@@ -3896,15 +4159,17 @@
         <v>39</v>
       </c>
       <c r="B92" t="s" s="13">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C92" t="s" s="13">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D92" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E92" t="s" s="13"/>
+      <c r="E92" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F92" t="s" s="13"/>
       <c r="G92" t="s" s="13"/>
     </row>
@@ -3913,15 +4178,17 @@
         <v>40</v>
       </c>
       <c r="B93" t="s" s="13">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C93" t="s" s="13">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D93" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E93" t="s" s="13"/>
+      <c r="E93" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F93" t="s" s="13"/>
       <c r="G93" t="s" s="13"/>
     </row>
@@ -3930,15 +4197,17 @@
         <v>41</v>
       </c>
       <c r="B94" t="s" s="13">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C94" t="s" s="13">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D94" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E94" t="s" s="13"/>
+      <c r="E94" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F94" t="s" s="13"/>
       <c r="G94" t="s" s="13"/>
     </row>
@@ -3947,15 +4216,17 @@
         <v>42</v>
       </c>
       <c r="B95" t="s" s="13">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C95" t="s" s="13">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D95" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E95" t="s" s="13"/>
+      <c r="E95" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F95" t="s" s="13"/>
       <c r="G95" t="s" s="13"/>
     </row>
@@ -3964,15 +4235,17 @@
         <v>43</v>
       </c>
       <c r="B96" t="s" s="13">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C96" t="s" s="13">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D96" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E96" t="s" s="13"/>
+      <c r="E96" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F96" t="s" s="13"/>
       <c r="G96" t="s" s="13"/>
     </row>
@@ -3981,15 +4254,17 @@
         <v>44</v>
       </c>
       <c r="B97" t="s" s="13">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C97" t="s" s="13">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D97" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E97" t="s" s="13"/>
+      <c r="E97" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F97" t="s" s="13"/>
       <c r="G97" t="s" s="13"/>
     </row>
@@ -3998,15 +4273,17 @@
         <v>45</v>
       </c>
       <c r="B98" t="s" s="13">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s" s="13">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E98" t="s" s="13"/>
+      <c r="E98" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F98" t="s" s="13"/>
       <c r="G98" t="s" s="13"/>
     </row>
@@ -4015,15 +4292,17 @@
         <v>46</v>
       </c>
       <c r="B99" t="s" s="13">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s" s="13">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D99" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E99" t="s" s="13"/>
+      <c r="E99" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F99" t="s" s="13"/>
       <c r="G99" t="s" s="13"/>
     </row>
@@ -4032,15 +4311,17 @@
         <v>47</v>
       </c>
       <c r="B100" t="s" s="13">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C100" t="s" s="13">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D100" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E100" t="s" s="13"/>
+      <c r="E100" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F100" t="s" s="13"/>
       <c r="G100" t="s" s="13"/>
     </row>
@@ -4102,7 +4383,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s" s="7"/>
       <c r="E3" t="s" s="7"/>
@@ -4190,7 +4471,9 @@
       <c r="D11" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="13"/>
+      <c r="E11" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F11" t="s" s="13"/>
       <c r="G11" t="s" s="13"/>
     </row>
@@ -4199,15 +4482,17 @@
         <v>2</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E12" t="s" s="13"/>
+      <c r="E12" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F12" t="s" s="13"/>
       <c r="G12" t="s" s="13"/>
     </row>
@@ -4216,15 +4501,17 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D13" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s" s="13"/>
       <c r="F13" t="s" s="13"/>
       <c r="G13" t="s" s="13"/>
     </row>
@@ -4233,15 +4520,17 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E14" t="s" s="13"/>
+      <c r="E14" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F14" t="s" s="13"/>
       <c r="G14" t="s" s="13"/>
     </row>
@@ -4250,15 +4539,17 @@
         <v>5</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E15" t="s" s="13"/>
+      <c r="E15" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F15" t="s" s="13"/>
       <c r="G15" t="s" s="13"/>
     </row>
@@ -4267,15 +4558,17 @@
         <v>6</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D16" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E16" t="s" s="13"/>
+      <c r="E16" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F16" t="s" s="13"/>
       <c r="G16" t="s" s="13"/>
     </row>
@@ -4284,15 +4577,17 @@
         <v>7</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E17" t="s" s="13"/>
+      <c r="E17" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F17" t="s" s="13"/>
       <c r="G17" t="s" s="13"/>
     </row>
@@ -4301,15 +4596,17 @@
         <v>8</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s" s="13">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E18" t="s" s="13"/>
+      <c r="E18" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F18" t="s" s="13"/>
       <c r="G18" t="s" s="13"/>
     </row>
@@ -4318,15 +4615,17 @@
         <v>9</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s" s="13">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E19" t="s" s="13"/>
+      <c r="E19" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F19" t="s" s="13"/>
       <c r="G19" t="s" s="13"/>
     </row>
@@ -4335,15 +4634,17 @@
         <v>10</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s" s="13">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E20" t="s" s="13"/>
+      <c r="E20" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F20" t="s" s="13"/>
       <c r="G20" t="s" s="13"/>
     </row>
@@ -4352,15 +4653,17 @@
         <v>11</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s" s="13">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E21" t="s" s="13"/>
+      <c r="E21" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F21" t="s" s="13"/>
       <c r="G21" t="s" s="13"/>
     </row>
@@ -4369,7 +4672,7 @@
     <row r="24" outlineLevel="0"/>
     <row r="25" outlineLevel="0">
       <c r="A25" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s" s="10"/>
     </row>
@@ -4398,7 +4701,7 @@
     </row>
     <row r="27" outlineLevel="0">
       <c r="A27" t="s" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s" s="7"/>
       <c r="C27" t="s" s="7"/>
@@ -4412,15 +4715,17 @@
         <v>1</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E28" t="s" s="13"/>
+      <c r="E28" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F28" t="s" s="13"/>
       <c r="G28" t="s" s="13"/>
     </row>
@@ -4432,12 +4737,14 @@
         <v>23</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E29" t="s" s="13"/>
+      <c r="E29" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F29" t="s" s="13"/>
       <c r="G29" t="s" s="13"/>
     </row>
@@ -4446,15 +4753,17 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E30" t="s" s="13"/>
+      <c r="E30" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F30" t="s" s="13"/>
       <c r="G30" t="s" s="13"/>
     </row>
@@ -4463,15 +4772,17 @@
         <v>4</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D31" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s" s="13"/>
       <c r="F31" t="s" s="13"/>
       <c r="G31" t="s" s="13"/>
     </row>
@@ -4480,15 +4791,17 @@
         <v>5</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E32" t="s" s="13"/>
+      <c r="E32" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F32" t="s" s="13"/>
       <c r="G32" t="s" s="13"/>
     </row>
@@ -4497,15 +4810,17 @@
         <v>6</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s" s="13">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E33" t="s" s="13"/>
+      <c r="E33" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F33" t="s" s="13"/>
       <c r="G33" t="s" s="13"/>
     </row>
@@ -4514,15 +4829,17 @@
         <v>7</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s" s="13">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E34" t="s" s="13"/>
+      <c r="E34" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F34" t="s" s="13"/>
       <c r="G34" t="s" s="13"/>
     </row>
@@ -4531,15 +4848,17 @@
         <v>8</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s" s="13">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D35" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E35" t="s" s="13"/>
+      <c r="E35" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F35" t="s" s="13"/>
       <c r="G35" t="s" s="13"/>
     </row>
@@ -4548,15 +4867,17 @@
         <v>9</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s" s="13">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E36" t="s" s="13"/>
+      <c r="E36" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F36" t="s" s="13"/>
       <c r="G36" t="s" s="13"/>
     </row>
@@ -4565,15 +4886,17 @@
         <v>10</v>
       </c>
       <c r="B37" t="s" s="13">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s" s="13">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E37" t="s" s="13"/>
+      <c r="E37" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F37" t="s" s="13"/>
       <c r="G37" t="s" s="13"/>
     </row>
@@ -4582,15 +4905,17 @@
         <v>11</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s" s="13">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E38" t="s" s="13"/>
+      <c r="E38" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F38" t="s" s="13"/>
       <c r="G38" t="s" s="13"/>
     </row>
@@ -4599,15 +4924,17 @@
         <v>12</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s" s="13">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E39" t="s" s="13"/>
+      <c r="E39" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F39" t="s" s="13"/>
       <c r="G39" t="s" s="13"/>
     </row>
@@ -4616,15 +4943,17 @@
         <v>13</v>
       </c>
       <c r="B40" t="s" s="13">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s" s="13">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E40" t="s" s="13"/>
+      <c r="E40" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F40" t="s" s="13"/>
       <c r="G40" t="s" s="13"/>
     </row>
@@ -4633,15 +4962,17 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="13">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s" s="13">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E41" t="s" s="13"/>
+      <c r="E41" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F41" t="s" s="13"/>
       <c r="G41" t="s" s="13"/>
     </row>
@@ -4650,15 +4981,17 @@
         <v>15</v>
       </c>
       <c r="B42" t="s" s="13">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C42" t="s" s="13">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E42" t="s" s="13"/>
+      <c r="E42" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F42" t="s" s="13"/>
       <c r="G42" t="s" s="13"/>
     </row>
@@ -4667,15 +5000,17 @@
         <v>16</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C43" t="s" s="13">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E43" t="s" s="13"/>
+      <c r="E43" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F43" t="s" s="13"/>
       <c r="G43" t="s" s="13"/>
     </row>
@@ -4684,15 +5019,17 @@
         <v>17</v>
       </c>
       <c r="B44" t="s" s="13">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s" s="13">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E44" t="s" s="13"/>
+      <c r="E44" t="s" s="13">
+        <v>70</v>
+      </c>
       <c r="F44" t="s" s="13"/>
       <c r="G44" t="s" s="13"/>
     </row>
@@ -4701,15 +5038,17 @@
         <v>18</v>
       </c>
       <c r="B45" t="s" s="13">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s" s="13">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E45" t="s" s="13"/>
+      <c r="E45" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F45" t="s" s="13"/>
       <c r="G45" t="s" s="13"/>
     </row>
@@ -4718,15 +5057,17 @@
         <v>19</v>
       </c>
       <c r="B46" t="s" s="13">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C46" t="s" s="13">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E46" t="s" s="13"/>
+      <c r="E46" t="s" s="13">
+        <v>70</v>
+      </c>
       <c r="F46" t="s" s="13"/>
       <c r="G46" t="s" s="13"/>
     </row>
@@ -4735,15 +5076,17 @@
         <v>20</v>
       </c>
       <c r="B47" t="s" s="13">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s" s="13">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E47" t="s" s="13"/>
+      <c r="E47" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F47" t="s" s="13"/>
       <c r="G47" t="s" s="13"/>
     </row>
@@ -4752,15 +5095,17 @@
         <v>21</v>
       </c>
       <c r="B48" t="s" s="13">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s" s="13">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E48" t="s" s="13"/>
+      <c r="E48" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F48" t="s" s="13"/>
       <c r="G48" t="s" s="13"/>
     </row>
@@ -4769,15 +5114,17 @@
         <v>22</v>
       </c>
       <c r="B49" t="s" s="13">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C49" t="s" s="13">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D49" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E49" t="s" s="13"/>
+      <c r="E49" t="s" s="13">
+        <v>124</v>
+      </c>
       <c r="F49" t="s" s="13"/>
       <c r="G49" t="s" s="13"/>
     </row>
@@ -4789,12 +5136,14 @@
         <v>21</v>
       </c>
       <c r="C50" t="s" s="13">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E50" t="s" s="13"/>
+      <c r="E50" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F50" t="s" s="13"/>
       <c r="G50" t="s" s="13"/>
     </row>
@@ -4803,7 +5152,7 @@
     <row r="53" outlineLevel="0"/>
     <row r="54" outlineLevel="0">
       <c r="A54" t="s" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s" s="10"/>
     </row>
@@ -4835,15 +5184,17 @@
         <v>1</v>
       </c>
       <c r="B56" t="s" s="13">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s" s="13">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D56" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E56" t="s" s="13"/>
+      <c r="E56" t="s" s="13">
+        <v>133</v>
+      </c>
       <c r="F56" t="s" s="13"/>
       <c r="G56" t="s" s="13"/>
     </row>
@@ -4852,15 +5203,17 @@
         <v>2</v>
       </c>
       <c r="B57" t="s" s="13">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s" s="13">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D57" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E57" t="s" s="13"/>
+      <c r="E57" t="s" s="13">
+        <v>84</v>
+      </c>
       <c r="F57" t="s" s="13"/>
       <c r="G57" t="s" s="13"/>
     </row>
@@ -4869,15 +5222,17 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="13">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s" s="13">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E58" t="s" s="13"/>
+      <c r="E58" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F58" t="s" s="13"/>
       <c r="G58" t="s" s="13"/>
     </row>
@@ -4886,15 +5241,17 @@
         <v>4</v>
       </c>
       <c r="B59" t="s" s="13">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s" s="13">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E59" t="s" s="13"/>
+      <c r="E59" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F59" t="s" s="13"/>
       <c r="G59" t="s" s="13"/>
     </row>
@@ -4903,15 +5260,17 @@
         <v>5</v>
       </c>
       <c r="B60" t="s" s="13">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s" s="13">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E60" t="s" s="13"/>
+      <c r="E60" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F60" t="s" s="13"/>
       <c r="G60" t="s" s="13"/>
     </row>
@@ -4920,15 +5279,17 @@
         <v>6</v>
       </c>
       <c r="B61" t="s" s="13">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s" s="13">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E61" t="s" s="13"/>
+      <c r="E61" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F61" t="s" s="13"/>
       <c r="G61" t="s" s="13"/>
     </row>
@@ -4937,15 +5298,17 @@
         <v>7</v>
       </c>
       <c r="B62" t="s" s="13">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s" s="13">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E62" t="s" s="13"/>
+      <c r="E62" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F62" t="s" s="13"/>
       <c r="G62" t="s" s="13"/>
     </row>
@@ -4954,15 +5317,17 @@
         <v>8</v>
       </c>
       <c r="B63" t="s" s="13">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s" s="13">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E63" t="s" s="13"/>
+      <c r="E63" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F63" t="s" s="13"/>
       <c r="G63" t="s" s="13"/>
     </row>
@@ -4971,15 +5336,17 @@
         <v>9</v>
       </c>
       <c r="B64" t="s" s="13">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s" s="13">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E64" t="s" s="13"/>
+      <c r="E64" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F64" t="s" s="13"/>
       <c r="G64" t="s" s="13"/>
     </row>
@@ -4988,15 +5355,17 @@
         <v>10</v>
       </c>
       <c r="B65" t="s" s="13">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s" s="13">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E65" t="s" s="13"/>
+      <c r="E65" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F65" t="s" s="13"/>
       <c r="G65" t="s" s="13"/>
     </row>
@@ -5005,15 +5374,17 @@
         <v>11</v>
       </c>
       <c r="B66" t="s" s="13">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s" s="13">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E66" t="s" s="13"/>
+      <c r="E66" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F66" t="s" s="13"/>
       <c r="G66" t="s" s="13"/>
     </row>
@@ -5022,15 +5393,17 @@
         <v>12</v>
       </c>
       <c r="B67" t="s" s="13">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s" s="13">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E67" t="s" s="13"/>
+      <c r="E67" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F67" t="s" s="13"/>
       <c r="G67" t="s" s="13"/>
     </row>
@@ -5039,15 +5412,17 @@
         <v>13</v>
       </c>
       <c r="B68" t="s" s="13">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s" s="13">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E68" t="s" s="13"/>
+      <c r="E68" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F68" t="s" s="13"/>
       <c r="G68" t="s" s="13"/>
     </row>
@@ -5056,15 +5431,17 @@
         <v>14</v>
       </c>
       <c r="B69" t="s" s="13">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s" s="13">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E69" t="s" s="13"/>
+      <c r="E69" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F69" t="s" s="13"/>
       <c r="G69" t="s" s="13"/>
     </row>
@@ -5073,15 +5450,17 @@
         <v>15</v>
       </c>
       <c r="B70" t="s" s="13">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s" s="13">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E70" t="s" s="13"/>
+      <c r="E70" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F70" t="s" s="13"/>
       <c r="G70" t="s" s="13"/>
     </row>
@@ -5090,15 +5469,17 @@
         <v>16</v>
       </c>
       <c r="B71" t="s" s="13">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s" s="13">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E71" t="s" s="13"/>
+      <c r="E71" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F71" t="s" s="13"/>
       <c r="G71" t="s" s="13"/>
     </row>
@@ -5107,15 +5488,17 @@
         <v>17</v>
       </c>
       <c r="B72" t="s" s="13">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s" s="13">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E72" t="s" s="13"/>
+      <c r="E72" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F72" t="s" s="13"/>
       <c r="G72" t="s" s="13"/>
     </row>
@@ -5124,15 +5507,17 @@
         <v>18</v>
       </c>
       <c r="B73" t="s" s="13">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s" s="13">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E73" t="s" s="13"/>
+      <c r="E73" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F73" t="s" s="13"/>
       <c r="G73" t="s" s="13"/>
     </row>
@@ -5141,15 +5526,17 @@
         <v>19</v>
       </c>
       <c r="B74" t="s" s="13">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s" s="13">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E74" t="s" s="13"/>
+      <c r="E74" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F74" t="s" s="13"/>
       <c r="G74" t="s" s="13"/>
     </row>
@@ -5158,15 +5545,17 @@
         <v>20</v>
       </c>
       <c r="B75" t="s" s="13">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s" s="13">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E75" t="s" s="13"/>
+      <c r="E75" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F75" t="s" s="13"/>
       <c r="G75" t="s" s="13"/>
     </row>
@@ -5175,15 +5564,17 @@
         <v>21</v>
       </c>
       <c r="B76" t="s" s="13">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s" s="13">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E76" t="s" s="13"/>
+      <c r="E76" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F76" t="s" s="13"/>
       <c r="G76" t="s" s="13"/>
     </row>
@@ -5192,15 +5583,17 @@
         <v>22</v>
       </c>
       <c r="B77" t="s" s="13">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s" s="13">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E77" t="s" s="13"/>
+      <c r="E77" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F77" t="s" s="13"/>
       <c r="G77" t="s" s="13"/>
     </row>
@@ -5209,15 +5602,17 @@
         <v>23</v>
       </c>
       <c r="B78" t="s" s="13">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s" s="13">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D78" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E78" t="s" s="13"/>
+      <c r="E78" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F78" t="s" s="13"/>
       <c r="G78" t="s" s="13"/>
     </row>
@@ -5226,15 +5621,17 @@
         <v>24</v>
       </c>
       <c r="B79" t="s" s="13">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C79" t="s" s="13">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E79" t="s" s="13"/>
+      <c r="E79" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F79" t="s" s="13"/>
       <c r="G79" t="s" s="13"/>
     </row>
@@ -5243,15 +5640,17 @@
         <v>25</v>
       </c>
       <c r="B80" t="s" s="13">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s" s="13">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D80" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E80" t="s" s="13"/>
+      <c r="E80" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F80" t="s" s="13"/>
       <c r="G80" t="s" s="13"/>
     </row>
@@ -5260,15 +5659,17 @@
         <v>26</v>
       </c>
       <c r="B81" t="s" s="13">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s" s="13">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E81" t="s" s="13"/>
+      <c r="E81" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F81" t="s" s="13"/>
       <c r="G81" t="s" s="13"/>
     </row>
@@ -5277,15 +5678,17 @@
         <v>27</v>
       </c>
       <c r="B82" t="s" s="13">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C82" t="s" s="13">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D82" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E82" t="s" s="13"/>
+      <c r="E82" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F82" t="s" s="13"/>
       <c r="G82" t="s" s="13"/>
     </row>
@@ -5294,15 +5697,17 @@
         <v>28</v>
       </c>
       <c r="B83" t="s" s="13">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C83" t="s" s="13">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D83" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E83" t="s" s="13"/>
+      <c r="E83" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F83" t="s" s="13"/>
       <c r="G83" t="s" s="13"/>
     </row>
@@ -5311,15 +5716,17 @@
         <v>29</v>
       </c>
       <c r="B84" t="s" s="13">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s" s="13">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D84" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E84" t="s" s="13"/>
+      <c r="E84" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F84" t="s" s="13"/>
       <c r="G84" t="s" s="13"/>
     </row>
@@ -5328,15 +5735,17 @@
         <v>30</v>
       </c>
       <c r="B85" t="s" s="13">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C85" t="s" s="13">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D85" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E85" t="s" s="13"/>
+      <c r="E85" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F85" t="s" s="13"/>
       <c r="G85" t="s" s="13"/>
     </row>
@@ -5345,15 +5754,17 @@
         <v>31</v>
       </c>
       <c r="B86" t="s" s="13">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s" s="13">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D86" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E86" t="s" s="13"/>
+      <c r="E86" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F86" t="s" s="13"/>
       <c r="G86" t="s" s="13"/>
     </row>
@@ -5362,15 +5773,17 @@
         <v>32</v>
       </c>
       <c r="B87" t="s" s="13">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C87" t="s" s="13">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D87" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E87" t="s" s="13"/>
+      <c r="E87" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F87" t="s" s="13"/>
       <c r="G87" t="s" s="13"/>
     </row>
@@ -5379,15 +5792,17 @@
         <v>33</v>
       </c>
       <c r="B88" t="s" s="13">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C88" t="s" s="13">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E88" t="s" s="13"/>
+      <c r="E88" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F88" t="s" s="13"/>
       <c r="G88" t="s" s="13"/>
     </row>
@@ -5396,15 +5811,17 @@
         <v>34</v>
       </c>
       <c r="B89" t="s" s="13">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s" s="13">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E89" t="s" s="13"/>
+      <c r="E89" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F89" t="s" s="13"/>
       <c r="G89" t="s" s="13"/>
     </row>
@@ -5413,15 +5830,17 @@
         <v>35</v>
       </c>
       <c r="B90" t="s" s="13">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C90" t="s" s="13">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D90" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E90" t="s" s="13"/>
+      <c r="E90" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F90" t="s" s="13"/>
       <c r="G90" t="s" s="13"/>
     </row>
@@ -5430,15 +5849,17 @@
         <v>36</v>
       </c>
       <c r="B91" t="s" s="13">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s" s="13">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D91" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E91" t="s" s="13"/>
+      <c r="E91" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F91" t="s" s="13"/>
       <c r="G91" t="s" s="13"/>
     </row>
@@ -5447,15 +5868,17 @@
         <v>37</v>
       </c>
       <c r="B92" t="s" s="13">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s" s="13">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E92" t="s" s="13"/>
+      <c r="E92" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F92" t="s" s="13"/>
       <c r="G92" t="s" s="13"/>
     </row>
@@ -5464,15 +5887,17 @@
         <v>38</v>
       </c>
       <c r="B93" t="s" s="13">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C93" t="s" s="13">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E93" t="s" s="13"/>
+      <c r="E93" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F93" t="s" s="13"/>
       <c r="G93" t="s" s="13"/>
     </row>
@@ -5481,15 +5906,17 @@
         <v>39</v>
       </c>
       <c r="B94" t="s" s="13">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C94" t="s" s="13">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D94" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E94" t="s" s="13"/>
+      <c r="E94" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F94" t="s" s="13"/>
       <c r="G94" t="s" s="13"/>
     </row>
@@ -5498,15 +5925,17 @@
         <v>40</v>
       </c>
       <c r="B95" t="s" s="13">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C95" t="s" s="13">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E95" t="s" s="13"/>
+      <c r="E95" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F95" t="s" s="13"/>
       <c r="G95" t="s" s="13"/>
     </row>
@@ -5515,15 +5944,17 @@
         <v>41</v>
       </c>
       <c r="B96" t="s" s="13">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C96" t="s" s="13">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E96" t="s" s="13"/>
+      <c r="E96" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F96" t="s" s="13"/>
       <c r="G96" t="s" s="13"/>
     </row>
@@ -5532,15 +5963,17 @@
         <v>42</v>
       </c>
       <c r="B97" t="s" s="13">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C97" t="s" s="13">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D97" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E97" t="s" s="13"/>
+      <c r="E97" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F97" t="s" s="13"/>
       <c r="G97" t="s" s="13"/>
     </row>
@@ -5549,15 +5982,17 @@
         <v>43</v>
       </c>
       <c r="B98" t="s" s="13">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C98" t="s" s="13">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D98" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E98" t="s" s="13"/>
+      <c r="E98" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F98" t="s" s="13"/>
       <c r="G98" t="s" s="13"/>
     </row>
@@ -5566,15 +6001,17 @@
         <v>44</v>
       </c>
       <c r="B99" t="s" s="13">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s" s="13">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E99" t="s" s="13"/>
+      <c r="E99" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F99" t="s" s="13"/>
       <c r="G99" t="s" s="13"/>
     </row>
@@ -5583,15 +6020,17 @@
         <v>45</v>
       </c>
       <c r="B100" t="s" s="13">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C100" t="s" s="13">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E100" t="s" s="13"/>
+      <c r="E100" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F100" t="s" s="13"/>
       <c r="G100" t="s" s="13"/>
     </row>
@@ -5600,15 +6039,17 @@
         <v>46</v>
       </c>
       <c r="B101" t="s" s="13">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s" s="13">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E101" t="s" s="13"/>
+      <c r="E101" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F101" t="s" s="13"/>
       <c r="G101" t="s" s="13"/>
     </row>
@@ -5617,15 +6058,17 @@
         <v>47</v>
       </c>
       <c r="B102" t="s" s="13">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C102" t="s" s="13">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D102" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E102" t="s" s="13"/>
+      <c r="E102" t="s" s="13">
+        <v>65</v>
+      </c>
       <c r="F102" t="s" s="13"/>
       <c r="G102" t="s" s="13"/>
     </row>
@@ -5687,7 +6130,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s" s="7"/>
       <c r="E3" t="s" s="7"/>
@@ -5775,7 +6218,9 @@
       <c r="D11" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="13"/>
+      <c r="E11" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F11" t="s" s="13"/>
       <c r="G11" t="s" s="13"/>
     </row>
@@ -5784,15 +6229,17 @@
         <v>2</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E12" t="s" s="13"/>
+      <c r="E12" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F12" t="s" s="13"/>
       <c r="G12" t="s" s="13"/>
     </row>
@@ -5801,15 +6248,17 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D13" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s" s="13"/>
       <c r="F13" t="s" s="13"/>
       <c r="G13" t="s" s="13"/>
     </row>
@@ -5818,15 +6267,17 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E14" t="s" s="13"/>
+      <c r="E14" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F14" t="s" s="13"/>
       <c r="G14" t="s" s="13"/>
     </row>
@@ -5836,12 +6287,14 @@
       </c>
       <c r="B15" t="s" s="13"/>
       <c r="C15" t="s" s="13">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E15" t="s" s="13"/>
+      <c r="E15" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F15" t="s" s="13"/>
       <c r="G15" t="s" s="13"/>
     </row>
@@ -5850,15 +6303,17 @@
         <v>6</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E16" t="s" s="13"/>
+      <c r="E16" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F16" t="s" s="13"/>
       <c r="G16" t="s" s="13"/>
     </row>
@@ -5867,15 +6322,17 @@
         <v>7</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D17" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E17" t="s" s="13"/>
+      <c r="E17" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F17" t="s" s="13"/>
       <c r="G17" t="s" s="13"/>
     </row>
@@ -5884,7 +6341,7 @@
     <row r="20" outlineLevel="0"/>
     <row r="21" outlineLevel="0">
       <c r="A21" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="10"/>
     </row>
@@ -5913,7 +6370,7 @@
     </row>
     <row r="23" outlineLevel="0">
       <c r="A23" t="s" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s" s="7"/>
       <c r="C23" t="s" s="7"/>
@@ -5927,15 +6384,17 @@
         <v>1</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E24" t="s" s="13"/>
+      <c r="E24" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F24" t="s" s="13"/>
       <c r="G24" t="s" s="13"/>
     </row>
@@ -5947,12 +6406,14 @@
         <v>23</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E25" t="s" s="13"/>
+      <c r="E25" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F25" t="s" s="13"/>
       <c r="G25" t="s" s="13"/>
     </row>
@@ -5961,15 +6422,17 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E26" t="s" s="13"/>
+      <c r="E26" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F26" t="s" s="13"/>
       <c r="G26" t="s" s="13"/>
     </row>
@@ -5978,15 +6441,17 @@
         <v>4</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E27" t="s" s="13"/>
+      <c r="E27" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F27" t="s" s="13"/>
       <c r="G27" t="s" s="13"/>
     </row>
@@ -5995,15 +6460,17 @@
         <v>5</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E28" t="s" s="13"/>
+      <c r="E28" t="s" s="13">
+        <v>62</v>
+      </c>
       <c r="F28" t="s" s="13"/>
       <c r="G28" t="s" s="13"/>
     </row>
@@ -6012,15 +6479,17 @@
         <v>6</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E29" t="s" s="13"/>
+      <c r="E29" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F29" t="s" s="13"/>
       <c r="G29" t="s" s="13"/>
     </row>
@@ -6029,15 +6498,17 @@
         <v>7</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D30" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s" s="13"/>
       <c r="F30" t="s" s="13"/>
       <c r="G30" t="s" s="13"/>
     </row>
@@ -6098,7 +6569,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s" s="7"/>
       <c r="E3" t="s" s="7"/>
@@ -6186,7 +6657,9 @@
       <c r="D11" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="13"/>
+      <c r="E11" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F11" t="s" s="13"/>
       <c r="G11" t="s" s="13"/>
     </row>
@@ -6195,15 +6668,17 @@
         <v>2</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E12" t="s" s="13"/>
+      <c r="E12" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F12" t="s" s="13"/>
       <c r="G12" t="s" s="13"/>
     </row>
@@ -6212,15 +6687,17 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D13" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s" s="13"/>
       <c r="F13" t="s" s="13"/>
       <c r="G13" t="s" s="13"/>
     </row>
@@ -6229,15 +6706,17 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E14" t="s" s="13"/>
+      <c r="E14" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F14" t="s" s="13"/>
       <c r="G14" t="s" s="13"/>
     </row>
@@ -6246,15 +6725,17 @@
         <v>5</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s" s="13">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E15" t="s" s="13"/>
+      <c r="E15" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F15" t="s" s="13"/>
       <c r="G15" t="s" s="13"/>
     </row>
@@ -6263,15 +6744,17 @@
         <v>6</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D16" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E16" t="s" s="13"/>
+      <c r="E16" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F16" t="s" s="13"/>
       <c r="G16" t="s" s="13"/>
     </row>
@@ -6280,15 +6763,17 @@
         <v>7</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D17" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E17" t="s" s="13"/>
+      <c r="E17" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F17" t="s" s="13"/>
       <c r="G17" t="s" s="13"/>
     </row>
@@ -6297,7 +6782,7 @@
     <row r="20" outlineLevel="0"/>
     <row r="21" outlineLevel="0">
       <c r="A21" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="10"/>
     </row>
@@ -6326,7 +6811,7 @@
     </row>
     <row r="23" outlineLevel="0">
       <c r="A23" t="s" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s" s="7"/>
       <c r="C23" t="s" s="7"/>
@@ -6340,15 +6825,17 @@
         <v>1</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E24" t="s" s="13"/>
+      <c r="E24" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F24" t="s" s="13"/>
       <c r="G24" t="s" s="13"/>
     </row>
@@ -6360,12 +6847,14 @@
         <v>23</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E25" t="s" s="13"/>
+      <c r="E25" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F25" t="s" s="13"/>
       <c r="G25" t="s" s="13"/>
     </row>
@@ -6374,15 +6863,17 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E26" t="s" s="13"/>
+      <c r="E26" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F26" t="s" s="13"/>
       <c r="G26" t="s" s="13"/>
     </row>
@@ -6391,15 +6882,17 @@
         <v>4</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D27" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s" s="13"/>
       <c r="F27" t="s" s="13"/>
       <c r="G27" t="s" s="13"/>
     </row>
@@ -6408,15 +6901,17 @@
         <v>5</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D28" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E28" t="s" s="13"/>
+      <c r="E28" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F28" t="s" s="13"/>
       <c r="G28" t="s" s="13"/>
     </row>
@@ -6425,15 +6920,17 @@
         <v>6</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D29" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E29" t="s" s="13"/>
+      <c r="E29" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F29" t="s" s="13"/>
       <c r="G29" t="s" s="13"/>
     </row>
@@ -6442,15 +6939,17 @@
         <v>7</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s" s="13">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D30" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E30" t="s" s="13"/>
+      <c r="E30" t="s" s="13">
+        <v>51</v>
+      </c>
       <c r="F30" t="s" s="13"/>
       <c r="G30" t="s" s="13"/>
     </row>
@@ -6459,15 +6958,17 @@
         <v>8</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C31" t="s" s="13">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D31" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E31" t="s" s="13"/>
+      <c r="E31" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F31" t="s" s="13"/>
       <c r="G31" t="s" s="13"/>
     </row>
@@ -6528,7 +7029,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s" s="7"/>
       <c r="E3" t="s" s="7"/>
@@ -6616,7 +7117,9 @@
       <c r="D11" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="13"/>
+      <c r="E11" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F11" t="s" s="13"/>
       <c r="G11" t="s" s="13"/>
     </row>
@@ -6625,15 +7128,17 @@
         <v>2</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E12" t="s" s="13"/>
+      <c r="E12" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F12" t="s" s="13"/>
       <c r="G12" t="s" s="13"/>
     </row>
@@ -6642,15 +7147,17 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D13" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s" s="13"/>
       <c r="F13" t="s" s="13"/>
       <c r="G13" t="s" s="13"/>
     </row>
@@ -6659,15 +7166,17 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E14" t="s" s="13"/>
+      <c r="E14" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F14" t="s" s="13"/>
       <c r="G14" t="s" s="13"/>
     </row>
@@ -6676,15 +7185,17 @@
         <v>5</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s" s="13">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E15" t="s" s="13"/>
+      <c r="E15" t="s" s="13">
+        <v>84</v>
+      </c>
       <c r="F15" t="s" s="13"/>
       <c r="G15" t="s" s="13"/>
     </row>
@@ -6693,15 +7204,17 @@
         <v>6</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D16" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E16" t="s" s="13"/>
+      <c r="E16" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F16" t="s" s="13"/>
       <c r="G16" t="s" s="13"/>
     </row>
@@ -6710,15 +7223,17 @@
         <v>7</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D17" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E17" t="s" s="13"/>
+      <c r="E17" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F17" t="s" s="13"/>
       <c r="G17" t="s" s="13"/>
     </row>
@@ -6727,15 +7242,17 @@
         <v>8</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C18" t="s" s="13">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E18" t="s" s="13"/>
+      <c r="E18" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F18" t="s" s="13"/>
       <c r="G18" t="s" s="13"/>
     </row>
@@ -6744,7 +7261,7 @@
     <row r="21" outlineLevel="0"/>
     <row r="22" outlineLevel="0">
       <c r="A22" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="10"/>
     </row>
@@ -6773,7 +7290,7 @@
     </row>
     <row r="24" outlineLevel="0">
       <c r="A24" t="s" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s" s="7"/>
       <c r="C24" t="s" s="7"/>
@@ -6787,15 +7304,17 @@
         <v>1</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E25" t="s" s="13"/>
+      <c r="E25" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F25" t="s" s="13"/>
       <c r="G25" t="s" s="13"/>
     </row>
@@ -6807,12 +7326,14 @@
         <v>23</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E26" t="s" s="13"/>
+      <c r="E26" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F26" t="s" s="13"/>
       <c r="G26" t="s" s="13"/>
     </row>
@@ -6821,15 +7342,17 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E27" t="s" s="13"/>
+      <c r="E27" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F27" t="s" s="13"/>
       <c r="G27" t="s" s="13"/>
     </row>
@@ -6838,15 +7361,17 @@
         <v>4</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D28" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s" s="13"/>
       <c r="F28" t="s" s="13"/>
       <c r="G28" t="s" s="13"/>
     </row>
@@ -6855,15 +7380,17 @@
         <v>5</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E29" t="s" s="13"/>
+      <c r="E29" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F29" t="s" s="13"/>
       <c r="G29" t="s" s="13"/>
     </row>
@@ -6872,15 +7399,17 @@
         <v>6</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s" s="13">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E30" t="s" s="13"/>
+      <c r="E30" t="s" s="13">
+        <v>84</v>
+      </c>
       <c r="F30" t="s" s="13"/>
       <c r="G30" t="s" s="13"/>
     </row>
@@ -6889,15 +7418,17 @@
         <v>7</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s" s="13">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E31" t="s" s="13"/>
+      <c r="E31" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F31" t="s" s="13"/>
       <c r="G31" t="s" s="13"/>
     </row>
@@ -6906,15 +7437,17 @@
         <v>8</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s" s="13">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D32" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E32" t="s" s="13"/>
+      <c r="E32" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F32" t="s" s="13"/>
       <c r="G32" t="s" s="13"/>
     </row>
@@ -6923,15 +7456,17 @@
         <v>9</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s" s="13">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E33" t="s" s="13"/>
+      <c r="E33" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F33" t="s" s="13"/>
       <c r="G33" t="s" s="13"/>
     </row>
@@ -6940,15 +7475,17 @@
         <v>10</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C34" t="s" s="13">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E34" t="s" s="13"/>
+      <c r="E34" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F34" t="s" s="13"/>
       <c r="G34" t="s" s="13"/>
     </row>
@@ -6957,15 +7494,17 @@
         <v>11</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s" s="13">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E35" t="s" s="13"/>
+      <c r="E35" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F35" t="s" s="13"/>
       <c r="G35" t="s" s="13"/>
     </row>
@@ -6974,15 +7513,17 @@
         <v>12</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s" s="13">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E36" t="s" s="13"/>
+      <c r="E36" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F36" t="s" s="13"/>
       <c r="G36" t="s" s="13"/>
     </row>
@@ -6991,15 +7532,17 @@
         <v>13</v>
       </c>
       <c r="B37" t="s" s="13">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s" s="13">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D37" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E37" t="s" s="13"/>
+      <c r="E37" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F37" t="s" s="13"/>
       <c r="G37" t="s" s="13"/>
     </row>
@@ -7011,12 +7554,14 @@
         <v>21</v>
       </c>
       <c r="C38" t="s" s="13">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D38" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E38" t="s" s="13"/>
+      <c r="E38" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F38" t="s" s="13"/>
       <c r="G38" t="s" s="13"/>
     </row>
@@ -7077,7 +7622,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D3" t="s" s="7"/>
       <c r="E3" t="s" s="7"/>
@@ -7165,7 +7710,9 @@
       <c r="D11" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="13"/>
+      <c r="E11" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F11" t="s" s="13"/>
       <c r="G11" t="s" s="13"/>
     </row>
@@ -7174,15 +7721,17 @@
         <v>2</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E12" t="s" s="13"/>
+      <c r="E12" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F12" t="s" s="13"/>
       <c r="G12" t="s" s="13"/>
     </row>
@@ -7191,15 +7740,17 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D13" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s" s="13"/>
       <c r="F13" t="s" s="13"/>
       <c r="G13" t="s" s="13"/>
     </row>
@@ -7208,15 +7759,17 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E14" t="s" s="13"/>
+      <c r="E14" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F14" t="s" s="13"/>
       <c r="G14" t="s" s="13"/>
     </row>
@@ -7225,15 +7778,17 @@
         <v>5</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s" s="13">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E15" t="s" s="13"/>
+      <c r="E15" t="s" s="13">
+        <v>84</v>
+      </c>
       <c r="F15" t="s" s="13"/>
       <c r="G15" t="s" s="13"/>
     </row>
@@ -7242,15 +7797,17 @@
         <v>6</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D16" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E16" t="s" s="13"/>
+      <c r="E16" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F16" t="s" s="13"/>
       <c r="G16" t="s" s="13"/>
     </row>
@@ -7259,15 +7816,17 @@
         <v>7</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E17" t="s" s="13"/>
+      <c r="E17" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F17" t="s" s="13"/>
       <c r="G17" t="s" s="13"/>
     </row>
@@ -7276,7 +7835,7 @@
     <row r="20" outlineLevel="0"/>
     <row r="21" outlineLevel="0">
       <c r="A21" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="10"/>
     </row>
@@ -7305,7 +7864,7 @@
     </row>
     <row r="23" outlineLevel="0">
       <c r="A23" t="s" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s" s="7"/>
       <c r="C23" t="s" s="7"/>
@@ -7319,15 +7878,17 @@
         <v>1</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E24" t="s" s="13"/>
+      <c r="E24" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F24" t="s" s="13"/>
       <c r="G24" t="s" s="13"/>
     </row>
@@ -7339,12 +7900,14 @@
         <v>23</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E25" t="s" s="13"/>
+      <c r="E25" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="F25" t="s" s="13"/>
       <c r="G25" t="s" s="13"/>
     </row>
@@ -7353,15 +7916,17 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E26" t="s" s="13"/>
+      <c r="E26" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F26" t="s" s="13"/>
       <c r="G26" t="s" s="13"/>
     </row>
@@ -7370,15 +7935,17 @@
         <v>4</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D27" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s" s="13"/>
       <c r="F27" t="s" s="13"/>
       <c r="G27" t="s" s="13"/>
     </row>
@@ -7387,15 +7954,17 @@
         <v>5</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E28" t="s" s="13"/>
+      <c r="E28" t="s" s="13">
+        <v>34</v>
+      </c>
       <c r="F28" t="s" s="13"/>
       <c r="G28" t="s" s="13"/>
     </row>
@@ -7404,15 +7973,17 @@
         <v>6</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E29" t="s" s="13"/>
+      <c r="E29" t="s" s="13">
+        <v>84</v>
+      </c>
       <c r="F29" t="s" s="13"/>
       <c r="G29" t="s" s="13"/>
     </row>
@@ -7421,15 +7992,17 @@
         <v>7</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s" s="13">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D30" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E30" t="s" s="13"/>
+      <c r="E30" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F30" t="s" s="13"/>
       <c r="G30" t="s" s="13"/>
     </row>
@@ -7438,15 +8011,17 @@
         <v>8</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s" s="13">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E31" t="s" s="13"/>
+      <c r="E31" t="s" s="13">
+        <v>29</v>
+      </c>
       <c r="F31" t="s" s="13"/>
       <c r="G31" t="s" s="13"/>
     </row>
@@ -7455,15 +8030,17 @@
         <v>9</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C32" t="s" s="13">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D32" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E32" t="s" s="13"/>
+      <c r="E32" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F32" t="s" s="13"/>
       <c r="G32" t="s" s="13"/>
     </row>
@@ -7472,15 +8049,17 @@
         <v>10</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s" s="13">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E33" t="s" s="13"/>
+      <c r="E33" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F33" t="s" s="13"/>
       <c r="G33" t="s" s="13"/>
     </row>
@@ -7489,15 +8068,17 @@
         <v>11</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s" s="13">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D34" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E34" t="s" s="13"/>
+      <c r="E34" t="s" s="13">
+        <v>48</v>
+      </c>
       <c r="F34" t="s" s="13"/>
       <c r="G34" t="s" s="13"/>
     </row>
@@ -7506,15 +8087,17 @@
         <v>12</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C35" t="s" s="13">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D35" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E35" t="s" s="13"/>
+      <c r="E35" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F35" t="s" s="13"/>
       <c r="G35" t="s" s="13"/>
     </row>
@@ -7526,12 +8109,14 @@
         <v>21</v>
       </c>
       <c r="C36" t="s" s="13">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="E36" t="s" s="13"/>
+      <c r="E36" t="s" s="13">
+        <v>43</v>
+      </c>
       <c r="F36" t="s" s="13"/>
       <c r="G36" t="s" s="13"/>
     </row>
